--- a/app/config/tables/triagem/forms/dischargeQuick/dischargeQuick.xlsx
+++ b/app/config/tables/triagem/forms/dischargeQuick/dischargeQuick.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EFA946-8691-40E2-A3CA-C8B5A4CBCAEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681BA71-456B-4ADE-A474-C286B6265B07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="546">
   <si>
     <t>setting_name</t>
   </si>
@@ -952,9 +952,6 @@
     <t>anos</t>
   </si>
   <si>
-    <t>select_one_inline</t>
-  </si>
-  <si>
     <t>bcgmaealt</t>
   </si>
   <si>
@@ -1667,6 +1664,12 @@
   </si>
   <si>
     <t>data('falq') != null</t>
+  </si>
+  <si>
+    <t>maeq</t>
+  </si>
+  <si>
+    <t>exactdob2</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2226,7 +2229,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2283,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2419,7 +2422,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -2444,13 +2447,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2460,10 +2463,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" t="s">
         <v>492</v>
-      </c>
-      <c r="C5" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2476,13 +2479,13 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H7" t="s">
         <v>494</v>
-      </c>
-      <c r="H7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,29 +2493,29 @@
         <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+      <c r="L10" t="s">
         <v>497</v>
-      </c>
-      <c r="F10" t="s">
-        <v>379</v>
-      </c>
-      <c r="L10" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2520,34 +2523,34 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,13 +2565,13 @@
     </row>
     <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
+        <v>502</v>
+      </c>
+      <c r="G17" t="s">
         <v>503</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,16 +2579,16 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G18" t="s">
+        <v>505</v>
+      </c>
+      <c r="H18" t="s">
         <v>506</v>
       </c>
-      <c r="H18" t="s">
-        <v>507</v>
-      </c>
       <c r="P18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2593,16 +2596,16 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G19" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" t="s">
         <v>508</v>
       </c>
-      <c r="H19" t="s">
-        <v>509</v>
-      </c>
       <c r="P19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,26 +2613,26 @@
         <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L22">
         <v>99</v>
@@ -2637,10 +2640,10 @@
     </row>
     <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L23">
         <v>99</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2663,10 +2666,10 @@
     </row>
     <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2674,10 +2677,10 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -2685,10 +2688,10 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2696,51 +2699,51 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,16 +2758,16 @@
     </row>
     <row r="39" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G39" t="s">
+        <v>513</v>
+      </c>
+      <c r="H39" t="s">
         <v>514</v>
-      </c>
-      <c r="H39" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,23 +2778,23 @@
         <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L42">
         <v>999</v>
@@ -2799,7 +2802,7 @@
     </row>
     <row r="43" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,16 +2810,16 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G44" t="s">
+        <v>516</v>
+      </c>
+      <c r="H44" t="s">
         <v>517</v>
       </c>
-      <c r="H44" t="s">
-        <v>518</v>
-      </c>
       <c r="P44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2827,23 +2830,23 @@
         <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L47">
         <v>99999</v>
@@ -2851,7 +2854,7 @@
     </row>
     <row r="48" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,13 +2862,13 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2883,16 +2886,16 @@
         <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G52" t="s">
+        <v>520</v>
+      </c>
+      <c r="H52" t="s">
         <v>521</v>
-      </c>
-      <c r="H52" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2900,26 +2903,26 @@
         <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L55">
         <v>9999</v>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="56" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,16 +2938,16 @@
         <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G57" t="s">
+        <v>523</v>
+      </c>
+      <c r="H57" t="s">
         <v>524</v>
-      </c>
-      <c r="H57" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,26 +2955,26 @@
         <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L60">
         <v>9999</v>
@@ -2979,7 +2982,7 @@
     </row>
     <row r="61" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,16 +2990,16 @@
         <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G62" t="s">
+        <v>526</v>
+      </c>
+      <c r="H62" t="s">
         <v>527</v>
-      </c>
-      <c r="H62" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,26 +3007,26 @@
         <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F65" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L65">
         <v>9999</v>
@@ -3031,7 +3034,7 @@
     </row>
     <row r="66" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,16 +3042,16 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G67" t="s">
+        <v>529</v>
+      </c>
+      <c r="H67" t="s">
         <v>530</v>
       </c>
-      <c r="H67" t="s">
-        <v>531</v>
-      </c>
       <c r="P67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3066,13 +3069,13 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G70" t="s">
+        <v>531</v>
+      </c>
+      <c r="H70" t="s">
         <v>532</v>
-      </c>
-      <c r="H70" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,23 +3086,23 @@
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C72" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L73">
         <v>99999</v>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="74" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -3115,16 +3118,16 @@
         <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F75" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G75" t="s">
+        <v>534</v>
+      </c>
+      <c r="H75" t="s">
         <v>535</v>
-      </c>
-      <c r="H75" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,51 +3135,51 @@
         <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C77" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L79" s="25"/>
     </row>
     <row r="80" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L80" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -3186,10 +3189,10 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C83" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -3199,13 +3202,13 @@
     </row>
     <row r="85" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G85" t="s">
+        <v>541</v>
+      </c>
+      <c r="H85" t="s">
         <v>542</v>
-      </c>
-      <c r="H85" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3213,16 +3216,16 @@
         <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G86" t="s">
+        <v>505</v>
+      </c>
+      <c r="H86" t="s">
         <v>506</v>
       </c>
-      <c r="H86" t="s">
-        <v>507</v>
-      </c>
       <c r="P86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3230,16 +3233,16 @@
         <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G87" t="s">
+        <v>507</v>
+      </c>
+      <c r="H87" t="s">
         <v>508</v>
       </c>
-      <c r="H87" t="s">
-        <v>509</v>
-      </c>
       <c r="P87" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3247,26 +3250,26 @@
         <v>146</v>
       </c>
       <c r="E88" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F88" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L90">
         <v>99</v>
@@ -3274,10 +3277,10 @@
     </row>
     <row r="91" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L91">
         <v>99</v>
@@ -3285,7 +3288,7 @@
     </row>
     <row r="92" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
@@ -3295,12 +3298,12 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" spans="9:13" x14ac:dyDescent="0.25">
@@ -8443,7 +8446,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -9502,241 +9505,241 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -9748,307 +9751,307 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="D191" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B192" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="D192" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="D193" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B194" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="D194" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B195" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="D195" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="D196" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>451</v>
-      </c>
       <c r="D197" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="D198" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="D199" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B200" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="D200" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B201" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="D201" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B202" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="D202" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -10063,119 +10066,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>62</v>
@@ -10189,32 +10192,32 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -10325,10 +10328,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+      <selection activeCell="A150" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10369,7 +10372,7 @@
         <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="b">
         <v>0</v>
@@ -10377,10 +10380,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="C4" s="10" t="b">
         <v>0</v>
@@ -10388,10 +10391,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -10399,7 +10402,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -10410,7 +10413,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -10421,7 +10424,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -10443,7 +10446,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>20</v>
@@ -10454,7 +10457,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -10465,7 +10468,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -10476,7 +10479,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -10487,7 +10490,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
@@ -10509,7 +10512,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>36</v>
@@ -10520,10 +10523,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="10" t="b">
         <v>0</v>
@@ -10531,7 +10534,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>36</v>
@@ -10542,10 +10545,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="10" t="b">
         <v>0</v>
@@ -10553,7 +10556,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>20</v>
@@ -10564,7 +10567,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>8</v>
@@ -10575,7 +10578,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -10586,7 +10589,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>20</v>
@@ -10608,7 +10611,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -10619,7 +10622,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -10630,7 +10633,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -10641,7 +10644,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>8</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -10674,7 +10677,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -10685,7 +10688,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>20</v>
@@ -10696,7 +10699,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>8</v>
@@ -10707,7 +10710,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>8</v>
@@ -10718,7 +10721,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>8</v>
@@ -10729,10 +10732,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" s="10" t="b">
         <v>0</v>
@@ -10740,7 +10743,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -10751,7 +10754,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -10773,7 +10776,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>8</v>
@@ -10784,7 +10787,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -10795,7 +10798,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -10806,7 +10809,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>20</v>
@@ -10817,7 +10820,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -10828,7 +10831,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>8</v>
@@ -10839,7 +10842,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -10850,7 +10853,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>8</v>
@@ -10861,7 +10864,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>20</v>
@@ -10872,7 +10875,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>20</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>20</v>
@@ -10894,10 +10897,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="10" t="b">
         <v>0</v>
@@ -10905,7 +10908,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>9</v>
@@ -10916,7 +10919,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -10927,7 +10930,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>8</v>
@@ -10938,7 +10941,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>8</v>
@@ -10949,7 +10952,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -10960,7 +10963,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -10971,7 +10974,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -10982,7 +10985,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -10993,7 +10996,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -11004,7 +11007,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>21</v>
@@ -11015,7 +11018,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -11026,7 +11029,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -11037,7 +11040,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -11048,7 +11051,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -11059,7 +11062,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -11070,7 +11073,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -11708,7 +11711,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>9</v>
@@ -11719,7 +11722,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>8</v>
@@ -11730,7 +11733,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>8</v>
@@ -11741,7 +11744,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>8</v>
@@ -11752,7 +11755,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>146</v>
@@ -11763,7 +11766,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>146</v>
@@ -11774,7 +11777,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>146</v>
@@ -11785,7 +11788,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>20</v>
@@ -11796,7 +11799,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>8</v>
@@ -11807,7 +11810,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>8</v>
@@ -11818,7 +11821,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>9</v>
@@ -11829,7 +11832,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>9</v>
@@ -11840,7 +11843,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>9</v>
@@ -11851,7 +11854,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B138" s="24" t="s">
         <v>146</v>
@@ -11861,52 +11864,52 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="22" t="b">
+      <c r="C141" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="B140" s="22" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="17" t="b">
+      <c r="C142" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>8</v>
@@ -11917,7 +11920,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>8</v>
@@ -11928,10 +11931,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C145" s="17" t="b">
         <v>0</v>
@@ -11939,10 +11942,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C146" s="17" t="b">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>20</v>
@@ -11961,7 +11964,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>20</v>
@@ -11972,10 +11975,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="C149" s="17" t="b">
         <v>0</v>
@@ -11983,7 +11986,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>20</v>
@@ -11994,10 +11997,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="C151" s="17" t="b">
         <v>0</v>
@@ -12005,7 +12008,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>20</v>
@@ -12016,10 +12019,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C153" s="17" t="b">
         <v>0</v>
@@ -12027,10 +12030,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C154" s="17" t="b">
         <v>0</v>
@@ -12038,10 +12041,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C155" s="17" t="b">
         <v>0</v>
@@ -12049,10 +12052,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C156" s="17" t="b">
         <v>0</v>
@@ -12060,40 +12063,40 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C157" s="17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="18" t="b">
-        <v>1</v>
+      <c r="A158" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" s="18" t="b">
-        <v>1</v>
+      <c r="A159" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>484</v>
+        <v>398</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>146</v>
@@ -12104,7 +12107,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>146</v>
@@ -12114,19 +12117,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
-        <v>473</v>
+      <c r="A162" s="19" t="s">
+        <v>483</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C162" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>430</v>
+      <c r="A163" s="19" t="s">
+        <v>428</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>146</v>
@@ -12136,11 +12139,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
-        <v>431</v>
+      <c r="A164" s="18" t="s">
+        <v>472</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C164" s="18" t="b">
         <v>1</v>
@@ -12148,7 +12151,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>146</v>
@@ -12158,8 +12161,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
-        <v>474</v>
+      <c r="A166" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>146</v>
@@ -12170,7 +12173,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>146</v>
@@ -12181,10 +12184,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C168" s="18" t="b">
         <v>1</v>
@@ -12192,7 +12195,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>146</v>
@@ -12203,12 +12206,34 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="B170" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="B171" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C170" s="18" t="b">
+      <c r="C171" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="18" t="b">
         <v>1</v>
       </c>
     </row>
